--- a/webelementdefinitions.xlsx
+++ b/webelementdefinitions.xlsx
@@ -12,7 +12,10 @@
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="global" sheetId="1" r:id="rId1"/>
+    <sheet name="BPTEventPage" sheetId="2" r:id="rId2"/>
+    <sheet name="BPTFindAnEventPage" sheetId="3" r:id="rId3"/>
+    <sheet name="BPTPaymentPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>//td[contains(text(),'Contact us')]</t>
   </si>
@@ -63,19 +66,30 @@
   </si>
   <si>
     <t>Event Producers</t>
+  </si>
+  <si>
+    <t>//img[contains(@src,'BPT_logo_drop_small.png')]</t>
+  </si>
+  <si>
+    <t>BPT_logo_drop_small.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,16 +392,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -461,7 +477,55 @@
         <v>//td[contains(text(),'Event Producers')]</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"//img[contains(@src,'"&amp;B12&amp;"')]"</f>
+        <v>//img[contains(@src,'BPT_logo_drop_small.png')]</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/webelementdefinitions.xlsx
+++ b/webelementdefinitions.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="27280" yWindow="0" windowWidth="23920" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="global" sheetId="1" r:id="rId1"/>
-    <sheet name="BPTEventPage" sheetId="2" r:id="rId2"/>
-    <sheet name="BPTFindAnEventPage" sheetId="3" r:id="rId3"/>
-    <sheet name="BPTPaymentPage" sheetId="4" r:id="rId4"/>
+    <sheet name="BPTGlobalPage" sheetId="8" r:id="rId1"/>
+    <sheet name="td BPTGlobalPage" sheetId="5" r:id="rId2"/>
+    <sheet name="img BPTGlobalPage" sheetId="6" r:id="rId3"/>
+    <sheet name="a BPTGlobalPage" sheetId="7" r:id="rId4"/>
+    <sheet name="BPTEventPage" sheetId="2" r:id="rId5"/>
+    <sheet name="BPTFindAnEventPage" sheetId="3" r:id="rId6"/>
+    <sheet name="BPTPaymentPage" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,26 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="36">
   <si>
     <t>//td[contains(text(),'Contact us')]</t>
   </si>
   <si>
-    <t>//td[contains(text(),'Ticket Buyers')]</t>
-  </si>
-  <si>
-    <t>//td[contains(text(),'Join the mailing list')]</t>
-  </si>
-  <si>
-    <t>//td[contains(text(),'Connect with us')]</t>
-  </si>
-  <si>
-    <t>//td[contains(text(),'Resources')]</t>
-  </si>
-  <si>
-    <t>//td[contains(text(),'Event Producers')]</t>
-  </si>
-  <si>
     <t>Contact Us</t>
   </si>
   <si>
@@ -72,13 +60,95 @@
   </si>
   <si>
     <t>BPT_logo_drop_small.png</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'EN')]</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Friend us on Facebook</t>
+  </si>
+  <si>
+    <t>Follow us on Twitter</t>
+  </si>
+  <si>
+    <t>Watch us on YouTube</t>
+  </si>
+  <si>
+    <t>Read our blog</t>
+  </si>
+  <si>
+    <t>Get to know us</t>
+  </si>
+  <si>
+    <t>Meet the Doers</t>
+  </si>
+  <si>
+    <t>ticketBuyers</t>
+  </si>
+  <si>
+    <t>joinTheMailingList</t>
+  </si>
+  <si>
+    <t>connectWithUs</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>eventProducers</t>
+  </si>
+  <si>
+    <t>contactUs</t>
+  </si>
+  <si>
+    <t>bptLogo</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>friendUsOnFacebook</t>
+  </si>
+  <si>
+    <t>followUsOnTwitter</t>
+  </si>
+  <si>
+    <t>watchUsOnYouTube</t>
+  </si>
+  <si>
+    <t>readOurBlog</t>
+  </si>
+  <si>
+    <t>getToKnowUs</t>
+  </si>
+  <si>
+    <t>meetTheDoers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,20 +157,104 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Menlo"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -108,16 +262,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -392,140 +700,1109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="140.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"//td[contains(text(),'"&amp;B2&amp;"')]"</f>
-        <v>//td[contains(text(),'Contact Us')]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C7" si="0">"//td[contains(text(),'"&amp;B3&amp;"')]"</f>
-        <v>//td[contains(text(),'Ticket Buyers')]</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>//td[contains(text(),'Join the mailing list')]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>//td[contains(text(),'Connect with us')]</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>//td[contains(text(),'Resources')]</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>//td[contains(text(),'Event Producers')]</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="str">
-        <f>"//img[contains(@src,'"&amp;B12&amp;"')]"</f>
-        <v>//img[contains(@src,'BPT_logo_drop_small.png')]</v>
+    <row r="1" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="str">
+        <f>'td BPTGlobalPage'!C1</f>
+        <v>public By contactUs = By.xpath("//td[contains(text(),'Contact Us')]");</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="str">
+        <f>'td BPTGlobalPage'!C2</f>
+        <v>public By ticketBuyers = By.xpath("//td[contains(text(),'Ticket Buyers')]");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="str">
+        <f>'td BPTGlobalPage'!C3</f>
+        <v>public By joinTheMailingList = By.xpath("//td[contains(text(),'Join the mailing list')]");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="str">
+        <f>'td BPTGlobalPage'!C4</f>
+        <v>public By connectWithUs = By.xpath("//td[contains(text(),'Connect with us')]");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="str">
+        <f>'td BPTGlobalPage'!C5</f>
+        <v>public By resources = By.xpath("//td[contains(text(),'Resources')]");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="15" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="str">
+        <f>'td BPTGlobalPage'!C6</f>
+        <v>public By eventProducers = By.xpath("//td[contains(text(),'Event Producers')]");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="16" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="str">
+        <f>'img BPTGlobalPage'!C1</f>
+        <v>public By bptLogo = By.xpath("//img[contains(text(),'BPT_logo_drop_small.png')]");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="str">
+        <f>'a BPTGlobalPage'!C1</f>
+        <v>public By en = By.xpath("//td[contains(text(),'EN')]");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="str">
+        <f>'a BPTGlobalPage'!C2</f>
+        <v>public By es = By.xpath("//td[contains(text(),'ES')]");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="str">
+        <f>'a BPTGlobalPage'!C3</f>
+        <v>public By fr = By.xpath("//td[contains(text(),'FR')]");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="str">
+        <f>'a BPTGlobalPage'!C4</f>
+        <v>public By friendUsOnFacebook = By.xpath("//td[contains(text(),'Friend us on Facebook')]");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="13" t="str">
+        <f>'a BPTGlobalPage'!C5</f>
+        <v>public By followUsOnTwitter = By.xpath("//td[contains(text(),'Follow us on Twitter')]");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="str">
+        <f>'a BPTGlobalPage'!C6</f>
+        <v>public By watchUsOnYouTube = By.xpath("//td[contains(text(),'Watch us on YouTube')]");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="str">
+        <f>'a BPTGlobalPage'!C7</f>
+        <v>public By readOurBlog = By.xpath("//td[contains(text(),'Read our blog')]");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="str">
+        <f>'a BPTGlobalPage'!C8</f>
+        <v>public By getToKnowUs = By.xpath("//td[contains(text(),'Get to know us')]");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="str">
+        <f>'a BPTGlobalPage'!C9</f>
+        <v>public By meetTheDoers = By.xpath("//td[contains(text(),'Meet the Doers')]");</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>"public By "&amp;A1&amp;" = By.xpath(""//td[contains(text(),'"&amp;B1&amp;"')]"");"</f>
+        <v>public By contactUs = By.xpath("//td[contains(text(),'Contact Us')]");</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>"public By "&amp;A2&amp;" = By.xpath(""//td[contains(text(),'"&amp;B2&amp;"')]"");"</f>
+        <v>public By ticketBuyers = By.xpath("//td[contains(text(),'Ticket Buyers')]");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>"public By "&amp;A3&amp;" = By.xpath(""//td[contains(text(),'"&amp;B3&amp;"')]"");"</f>
+        <v>public By joinTheMailingList = By.xpath("//td[contains(text(),'Join the mailing list')]");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>"public By "&amp;A4&amp;" = By.xpath(""//td[contains(text(),'"&amp;B4&amp;"')]"");"</f>
+        <v>public By connectWithUs = By.xpath("//td[contains(text(),'Connect with us')]");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>"public By "&amp;A5&amp;" = By.xpath(""//td[contains(text(),'"&amp;B5&amp;"')]"");"</f>
+        <v>public By resources = By.xpath("//td[contains(text(),'Resources')]");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>"public By "&amp;A6&amp;" = By.xpath(""//td[contains(text(),'"&amp;B6&amp;"')]"");"</f>
+        <v>public By eventProducers = By.xpath("//td[contains(text(),'Event Producers')]");</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>"public By "&amp;A1&amp;" = By.xpath(""//img[contains(text(),'"&amp;B1&amp;"')]"");"</f>
+        <v>public By bptLogo = By.xpath("//img[contains(text(),'BPT_logo_drop_small.png')]");</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>"public By "&amp;A1&amp;" = By.xpath(""//td[contains(text(),'"&amp;B1&amp;"')]"");"</f>
+        <v>public By en = By.xpath("//td[contains(text(),'EN')]");</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>"public By "&amp;A2&amp;" = By.xpath(""//td[contains(text(),'"&amp;B2&amp;"')]"");"</f>
+        <v>public By es = By.xpath("//td[contains(text(),'ES')]");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>"public By "&amp;A3&amp;" = By.xpath(""//td[contains(text(),'"&amp;B3&amp;"')]"");"</f>
+        <v>public By fr = By.xpath("//td[contains(text(),'FR')]");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>"public By "&amp;A4&amp;" = By.xpath(""//td[contains(text(),'"&amp;B4&amp;"')]"");"</f>
+        <v>public By friendUsOnFacebook = By.xpath("//td[contains(text(),'Friend us on Facebook')]");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>"public By "&amp;A5&amp;" = By.xpath(""//td[contains(text(),'"&amp;B5&amp;"')]"");"</f>
+        <v>public By followUsOnTwitter = By.xpath("//td[contains(text(),'Follow us on Twitter')]");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>"public By "&amp;A6&amp;" = By.xpath(""//td[contains(text(),'"&amp;B6&amp;"')]"");"</f>
+        <v>public By watchUsOnYouTube = By.xpath("//td[contains(text(),'Watch us on YouTube')]");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>"public By "&amp;A7&amp;" = By.xpath(""//td[contains(text(),'"&amp;B7&amp;"')]"");"</f>
+        <v>public By readOurBlog = By.xpath("//td[contains(text(),'Read our blog')]");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>"public By "&amp;A8&amp;" = By.xpath(""//td[contains(text(),'"&amp;B8&amp;"')]"");"</f>
+        <v>public By getToKnowUs = By.xpath("//td[contains(text(),'Get to know us')]");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>"public By "&amp;A9&amp;" = By.xpath(""//td[contains(text(),'"&amp;B9&amp;"')]"");"</f>
+        <v>public By meetTheDoers = By.xpath("//td[contains(text(),'Meet the Doers')]");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>"public By "&amp;A2&amp;" = By.xpath(""//td[contains(text(),'"&amp;B2&amp;"')]"");"</f>
+        <v>public By contactUs = By.xpath("//td[contains(text(),'Contact Us')]");</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C17" si="0">"public By "&amp;A3&amp;" = By.xpath(""//td[contains(text(),'"&amp;B3&amp;"')]"");"</f>
+        <v>public By ticketBuyers = By.xpath("//td[contains(text(),'Ticket Buyers')]");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By joinTheMailingList = By.xpath("//td[contains(text(),'Join the mailing list')]");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By connectWithUs = By.xpath("//td[contains(text(),'Connect with us')]");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By resources = By.xpath("//td[contains(text(),'Resources')]");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By eventProducers = By.xpath("//td[contains(text(),'Event Producers')]");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By bptLogo = By.xpath("//td[contains(text(),'BPT_logo_drop_small.png')]");</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By en = By.xpath("//td[contains(text(),'EN')]");</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By es = By.xpath("//td[contains(text(),'ES')]");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By fr = By.xpath("//td[contains(text(),'FR')]");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By friendUsOnFacebook = By.xpath("//td[contains(text(),'Friend us on Facebook')]");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By followUsOnTwitter = By.xpath("//td[contains(text(),'Follow us on Twitter')]");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By watchUsOnYouTube = By.xpath("//td[contains(text(),'Watch us on YouTube')]");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By readOurBlog = By.xpath("//td[contains(text(),'Read our blog')]");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By getToKnowUs = By.xpath("//td[contains(text(),'Get to know us')]");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By meetTheDoers = By.xpath("//td[contains(text(),'Meet the Doers')]");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>"public By "&amp;A2&amp;" = By.xpath(""//td[contains(text(),'"&amp;B2&amp;"')]"");"</f>
+        <v>public By contactUs = By.xpath("//td[contains(text(),'Contact Us')]");</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C17" si="0">"public By "&amp;A3&amp;" = By.xpath(""//td[contains(text(),'"&amp;B3&amp;"')]"");"</f>
+        <v>public By ticketBuyers = By.xpath("//td[contains(text(),'Ticket Buyers')]");</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By joinTheMailingList = By.xpath("//td[contains(text(),'Join the mailing list')]");</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By connectWithUs = By.xpath("//td[contains(text(),'Connect with us')]");</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By resources = By.xpath("//td[contains(text(),'Resources')]");</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By eventProducers = By.xpath("//td[contains(text(),'Event Producers')]");</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By bptLogo = By.xpath("//td[contains(text(),'BPT_logo_drop_small.png')]");</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By en = By.xpath("//td[contains(text(),'EN')]");</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By es = By.xpath("//td[contains(text(),'ES')]");</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By fr = By.xpath("//td[contains(text(),'FR')]");</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By friendUsOnFacebook = By.xpath("//td[contains(text(),'Friend us on Facebook')]");</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By followUsOnTwitter = By.xpath("//td[contains(text(),'Follow us on Twitter')]");</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By watchUsOnYouTube = By.xpath("//td[contains(text(),'Watch us on YouTube')]");</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By readOurBlog = By.xpath("//td[contains(text(),'Read our blog')]");</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By getToKnowUs = By.xpath("//td[contains(text(),'Get to know us')]");</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By meetTheDoers = By.xpath("//td[contains(text(),'Meet the Doers')]");</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>"public By "&amp;A2&amp;" = By.xpath(""//td[contains(text(),'"&amp;B2&amp;"')]"");"</f>
+        <v>public By contactUs = By.xpath("//td[contains(text(),'Contact Us')]");</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C17" si="0">"public By "&amp;A3&amp;" = By.xpath(""//td[contains(text(),'"&amp;B3&amp;"')]"");"</f>
+        <v>public By ticketBuyers = By.xpath("//td[contains(text(),'Ticket Buyers')]");</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By joinTheMailingList = By.xpath("//td[contains(text(),'Join the mailing list')]");</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By connectWithUs = By.xpath("//td[contains(text(),'Connect with us')]");</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>public By resources = By.xpath("//td[contains(text(),'Resources')]");</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>public By eventProducers = By.xpath("//td[contains(text(),'Event Producers')]");</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>public By bptLogo = By.xpath("//td[contains(text(),'BPT_logo_drop_small.png')]");</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By en = By.xpath("//td[contains(text(),'EN')]");</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By es = By.xpath("//td[contains(text(),'ES')]");</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By fr = By.xpath("//td[contains(text(),'FR')]");</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By friendUsOnFacebook = By.xpath("//td[contains(text(),'Friend us on Facebook')]");</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By followUsOnTwitter = By.xpath("//td[contains(text(),'Follow us on Twitter')]");</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By watchUsOnYouTube = By.xpath("//td[contains(text(),'Watch us on YouTube')]");</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By readOurBlog = By.xpath("//td[contains(text(),'Read our blog')]");</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By getToKnowUs = By.xpath("//td[contains(text(),'Get to know us')]");</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>public By meetTheDoers = By.xpath("//td[contains(text(),'Meet the Doers')]");</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>